--- a/Index/GP Nr. 29-33.xlsx
+++ b/Index/GP Nr. 29-33.xlsx
@@ -1373,6 +1373,9 @@
       <c r="K20" t="n">
         <v>111.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>112.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2310,6 +2313,9 @@
       <c r="K20" t="n">
         <v>114.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3247,6 +3253,9 @@
       <c r="K20" t="n">
         <v>126.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4184,6 +4193,9 @@
       <c r="K20" t="n">
         <v>109.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>109.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5382,6 +5394,9 @@
       <c r="K20" t="n">
         <v>107.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>107.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6319,6 +6334,9 @@
       <c r="K20" t="n">
         <v>109.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>109.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7256,6 +7274,9 @@
       <c r="K20" t="n">
         <v>112.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8193,6 +8214,9 @@
       <c r="K20" t="n">
         <v>111</v>
       </c>
+      <c r="L20" t="n">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9130,6 +9154,9 @@
       <c r="K20" t="n">
         <v>108.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>108.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10067,6 +10094,9 @@
       <c r="K20" t="n">
         <v>113.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11004,6 +11034,9 @@
       <c r="K20" t="n">
         <v>117.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11941,6 +11974,9 @@
       <c r="K20" t="n">
         <v>113.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12878,6 +12914,9 @@
       <c r="K20" t="n">
         <v>118.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13815,6 +13854,9 @@
       <c r="K20" t="n">
         <v>133.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14752,6 +14794,9 @@
       <c r="K20" t="n">
         <v>127.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15689,6 +15734,9 @@
       <c r="K20" t="n">
         <v>126.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16626,6 +16674,9 @@
       <c r="K20" t="n">
         <v>123.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17563,6 +17614,9 @@
       <c r="K20" t="n">
         <v>122.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18500,6 +18554,9 @@
       <c r="K20" t="n">
         <v>128.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19437,6 +19494,9 @@
       <c r="K20" t="n">
         <v>135</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20374,6 +20434,9 @@
       <c r="K20" t="n">
         <v>117.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21311,6 +21374,9 @@
       <c r="K20" t="n">
         <v>144.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22248,6 +22314,9 @@
       <c r="K20" t="n">
         <v>112.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23185,6 +23254,9 @@
       <c r="K20" t="n">
         <v>131.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24122,6 +24194,9 @@
       <c r="K20" t="n">
         <v>127.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25059,6 +25134,9 @@
       <c r="K20" t="n">
         <v>114.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25996,6 +26074,9 @@
       <c r="K20" t="n">
         <v>114</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26933,6 +27014,9 @@
       <c r="K20" t="n">
         <v>115.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>114.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27870,6 +27954,9 @@
       <c r="K20" t="n">
         <v>112.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28808,6 +28895,9 @@
       <c r="K20" t="n">
         <v>111.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>111.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30005,6 +30095,9 @@
       <c r="K20" t="n">
         <v>115.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>115.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30942,6 +31035,9 @@
       <c r="K20" t="n">
         <v>122.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32009,6 +32105,9 @@
       <c r="K20" t="n">
         <v>121</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32948,6 +33047,9 @@
       <c r="K20" t="n">
         <v>113.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34015,6 +34117,9 @@
       <c r="K20" t="n">
         <v>121.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35082,6 +35187,9 @@
       <c r="K20" t="n">
         <v>122.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36149,6 +36257,9 @@
       <c r="K20" t="n">
         <v>122.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37346,6 +37457,9 @@
       <c r="K20" t="n">
         <v>120.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38284,6 +38398,9 @@
       <c r="K20" t="n">
         <v>112</v>
       </c>
+      <c r="L20" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39481,6 +39598,9 @@
       <c r="K20" t="n">
         <v>102.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40418,6 +40538,9 @@
       <c r="K20" t="n">
         <v>116.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41355,6 +41478,9 @@
       <c r="K20" t="n">
         <v>117.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42292,6 +42418,9 @@
       <c r="K20" t="n">
         <v>115.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>116.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 29-33.xlsx
+++ b/Index/GP Nr. 29-33.xlsx
@@ -1,55 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 29" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 29 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 29 10 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 29 10 2122" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 29 10 23" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 29 10 24" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 29 10 4 " sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 29 10 41" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 29 10 43" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 29 10 5 " sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 29 2" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 29 3" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 29 31" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 29 32" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 30" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 30 2" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 30 20 2" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GP = 30 20 4" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 30 9" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 30 92" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 30 99" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP = 31" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 31 00" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="GP = 31 01" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="GP = 31 02" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="GP = 31 03" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="GP = 31 09" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="GP = 32" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="GP = 32 1" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="GP = 32 2" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="GP = 32 3" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="GP = 32 4" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="GP = 32 5" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="GP = 32 50 1" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="GP = 32 50 2" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="GP = 32 50 3" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="GP = 32 50 4" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="GP = 32 9" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="GP = 33" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="GP = 33 1" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="GP = 33 12" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="GP = 33 14" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="GP = 33 2" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 10 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 10 2122" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 10 23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 10 24" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 10 4 " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 10 41" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 10 43" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 10 5 " sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 3" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 31" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 29 32" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 30" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 30 2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 30 20 2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 30 20 4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 30 9" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 30 92" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 30 99" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 31" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 31 00" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 31 01" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 31 02" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 31 03" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 31 09" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 1" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 2" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 3" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 4" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 5" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 50 1" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 50 2" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 50 3" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 50 4" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 32 9" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 33" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 33 1" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 33 12" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 33 14" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 33 2" sheetId="43" state="visible" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1376,6 +1376,12 @@
       <c r="L20" t="n">
         <v>112.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>110.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2316,6 +2322,12 @@
       <c r="L20" t="n">
         <v>114.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3256,6 +3268,12 @@
       <c r="L20" t="n">
         <v>127</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4196,6 +4214,12 @@
       <c r="L20" t="n">
         <v>109.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>107.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5397,6 +5421,12 @@
       <c r="L20" t="n">
         <v>107.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6337,6 +6367,12 @@
       <c r="L20" t="n">
         <v>109.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>107.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7277,6 +7313,12 @@
       <c r="L20" t="n">
         <v>112.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>110.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8217,6 +8259,12 @@
       <c r="L20" t="n">
         <v>111.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>109.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9157,6 +9205,12 @@
       <c r="L20" t="n">
         <v>108.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10097,6 +10151,12 @@
       <c r="L20" t="n">
         <v>113.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>110.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11037,6 +11097,12 @@
       <c r="L20" t="n">
         <v>117.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11977,6 +12043,12 @@
       <c r="L20" t="n">
         <v>113.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12917,6 +12989,12 @@
       <c r="L20" t="n">
         <v>119</v>
       </c>
+      <c r="M20" t="n">
+        <v>119</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13857,6 +13935,12 @@
       <c r="L20" t="n">
         <v>133.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14797,6 +14881,12 @@
       <c r="L20" t="n">
         <v>128</v>
       </c>
+      <c r="M20" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15737,6 +15827,12 @@
       <c r="L20" t="n">
         <v>127</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16677,6 +16773,12 @@
       <c r="L20" t="n">
         <v>123.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17617,6 +17719,12 @@
       <c r="L20" t="n">
         <v>122.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18557,6 +18665,12 @@
       <c r="L20" t="n">
         <v>129.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>125.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19497,6 +19611,12 @@
       <c r="L20" t="n">
         <v>135.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20437,6 +20557,12 @@
       <c r="L20" t="n">
         <v>117</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21377,6 +21503,12 @@
       <c r="L20" t="n">
         <v>144.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22317,6 +22449,12 @@
       <c r="L20" t="n">
         <v>112.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23257,6 +23395,12 @@
       <c r="L20" t="n">
         <v>131.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24197,6 +24341,12 @@
       <c r="L20" t="n">
         <v>127.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>124.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25137,6 +25287,12 @@
       <c r="L20" t="n">
         <v>114.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26077,6 +26233,12 @@
       <c r="L20" t="n">
         <v>113.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27017,6 +27179,12 @@
       <c r="L20" t="n">
         <v>114.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27957,6 +28125,12 @@
       <c r="L20" t="n">
         <v>112.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28898,6 +29072,12 @@
       <c r="L20" t="n">
         <v>111.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>110.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30098,6 +30278,12 @@
       <c r="L20" t="n">
         <v>115.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31038,6 +31224,12 @@
       <c r="L20" t="n">
         <v>122.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>118.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32108,6 +32300,12 @@
       <c r="L20" t="n">
         <v>121.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33050,6 +33248,12 @@
       <c r="L20" t="n">
         <v>113.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34120,6 +34324,12 @@
       <c r="L20" t="n">
         <v>121.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35190,6 +35400,12 @@
       <c r="L20" t="n">
         <v>123</v>
       </c>
+      <c r="M20" t="n">
+        <v>123</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36260,6 +36476,12 @@
       <c r="L20" t="n">
         <v>122.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37460,6 +37682,12 @@
       <c r="L20" t="n">
         <v>121.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38401,6 +38629,12 @@
       <c r="L20" t="n">
         <v>112</v>
       </c>
+      <c r="M20" t="n">
+        <v>112</v>
+      </c>
+      <c r="N20" t="n">
+        <v>110.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39601,6 +39835,12 @@
       <c r="L20" t="n">
         <v>102.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>102.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40541,6 +40781,12 @@
       <c r="L20" t="n">
         <v>117.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41481,6 +41727,12 @@
       <c r="L20" t="n">
         <v>118.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42421,6 +42673,12 @@
       <c r="L20" t="n">
         <v>116.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
